--- a/Code/Results/Cases/Case_4_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.678286325382714</v>
+        <v>1.076372476977724</v>
       </c>
       <c r="C2">
-        <v>0.5101453770373894</v>
+        <v>0.339357453126155</v>
       </c>
       <c r="D2">
-        <v>0.2002235974763806</v>
+        <v>0.07874679504270432</v>
       </c>
       <c r="E2">
-        <v>0.04804001190086971</v>
+        <v>0.1305530787407504</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3692629780070718</v>
+        <v>0.5634210167354468</v>
       </c>
       <c r="H2">
-        <v>0.2916225521647817</v>
+        <v>0.6922552834534343</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1495069061910073</v>
+        <v>0.1886098154021667</v>
       </c>
       <c r="M2">
-        <v>0.4375732606195726</v>
+        <v>0.2271693040413467</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.342804822413456</v>
+        <v>2.486489309140069</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.328415748042175</v>
+        <v>0.9686840919832775</v>
       </c>
       <c r="C3">
-        <v>0.4715113166874971</v>
+        <v>0.3263113533540434</v>
       </c>
       <c r="D3">
-        <v>0.1735951979959651</v>
+        <v>0.07140078600620825</v>
       </c>
       <c r="E3">
-        <v>0.0507183022420824</v>
+        <v>0.1321566076604418</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3496833624953695</v>
+        <v>0.5657797926579065</v>
       </c>
       <c r="H3">
-        <v>0.289896774861333</v>
+        <v>0.6982530816225818</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1355071041772788</v>
+        <v>0.1859515242259775</v>
       </c>
       <c r="M3">
-        <v>0.3808601777121723</v>
+        <v>0.2105733504529965</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.297231151250543</v>
+        <v>2.503718966320847</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.11397348861334</v>
+        <v>0.9025462894373959</v>
       </c>
       <c r="C4">
-        <v>0.4478478216759925</v>
+        <v>0.3182910085241986</v>
       </c>
       <c r="D4">
-        <v>0.1574046019449895</v>
+        <v>0.06692476485643795</v>
       </c>
       <c r="E4">
-        <v>0.05245127699468188</v>
+        <v>0.133197777312301</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3389129018931953</v>
+        <v>0.5677494206846774</v>
       </c>
       <c r="H4">
-        <v>0.2895924183660625</v>
+        <v>0.7023446836661691</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.127077474330477</v>
+        <v>0.1844106572097246</v>
       </c>
       <c r="M4">
-        <v>0.346165738445471</v>
+        <v>0.2004224225427507</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.273471355419019</v>
+        <v>2.516247831873471</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.026648998207804</v>
+        <v>0.8755920007286022</v>
       </c>
       <c r="C5">
-        <v>0.4382164497518204</v>
+        <v>0.3150204191106241</v>
       </c>
       <c r="D5">
-        <v>0.1508419795418803</v>
+        <v>0.06510940814814603</v>
       </c>
       <c r="E5">
-        <v>0.05317935743193181</v>
+        <v>0.1336363064753596</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.33481950612709</v>
+        <v>0.5686828375597059</v>
       </c>
       <c r="H5">
-        <v>0.2896497475450275</v>
+        <v>0.7041148308225615</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.123681264844393</v>
+        <v>0.1838057576821512</v>
       </c>
       <c r="M5">
-        <v>0.3320534309216754</v>
+        <v>0.1962958991912558</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.264792532401401</v>
+        <v>2.521842970791425</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.012151682707156</v>
+        <v>0.871116152212835</v>
       </c>
       <c r="C6">
-        <v>0.4366177941396359</v>
+        <v>0.3144772135390497</v>
       </c>
       <c r="D6">
-        <v>0.149754247492595</v>
+        <v>0.06480849230312913</v>
       </c>
       <c r="E6">
-        <v>0.05330156545690612</v>
+        <v>0.133709984582285</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.334157119158661</v>
+        <v>0.5688457201001071</v>
       </c>
       <c r="H6">
-        <v>0.2896699784419923</v>
+        <v>0.7044149691899122</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1231195969126659</v>
+        <v>0.1837067061679605</v>
       </c>
       <c r="M6">
-        <v>0.3297114888104034</v>
+        <v>0.1956113080187833</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.263410379553619</v>
+        <v>2.52280158295828</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.112795589114683</v>
+        <v>0.9021827828547657</v>
       </c>
       <c r="C7">
-        <v>0.4477178859234527</v>
+        <v>0.3182469088848734</v>
       </c>
       <c r="D7">
-        <v>0.1573159599764438</v>
+        <v>0.06690024727247135</v>
       </c>
       <c r="E7">
-        <v>0.05246100803566611</v>
+        <v>0.1332036337796231</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3388565242971637</v>
+        <v>0.5677614799779533</v>
       </c>
       <c r="H7">
-        <v>0.2895924682159574</v>
+        <v>0.7023681403709645</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1270315179231716</v>
+        <v>0.1844024060651535</v>
       </c>
       <c r="M7">
-        <v>0.3459753176575902</v>
+        <v>0.2003667297423348</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.273350321607083</v>
+        <v>2.51632130882976</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.557551505256754</v>
+        <v>1.039245911088415</v>
       </c>
       <c r="C8">
-        <v>0.4968105027659817</v>
+        <v>0.3348613921841661</v>
       </c>
       <c r="D8">
-        <v>0.1910060205199784</v>
+        <v>0.07620673315457793</v>
       </c>
       <c r="E8">
-        <v>0.04894489051784923</v>
+        <v>0.1310942365537587</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.362240402341925</v>
+        <v>0.5641259300418824</v>
       </c>
       <c r="H8">
-        <v>0.2908654519402489</v>
+        <v>0.6942384250663736</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.144643467855488</v>
+        <v>0.1876743084490116</v>
       </c>
       <c r="M8">
-        <v>0.4179882738676781</v>
+        <v>0.2214390524380079</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.326178556534074</v>
+        <v>2.492024954030057</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.434370362147774</v>
+        <v>1.307837155645529</v>
       </c>
       <c r="C9">
-        <v>0.5936874939157235</v>
+        <v>0.3673526070653566</v>
       </c>
       <c r="D9">
-        <v>0.2585732116231867</v>
+        <v>0.09473140635120103</v>
       </c>
       <c r="E9">
-        <v>0.04276938019616516</v>
+        <v>0.1274061754611854</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4189380444602051</v>
+        <v>0.5611480127608672</v>
       </c>
       <c r="H9">
-        <v>0.2997643373246603</v>
+        <v>0.681542893055493</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1806399222191004</v>
+        <v>0.1948135789973264</v>
       </c>
       <c r="M9">
-        <v>0.5605211348203767</v>
+        <v>0.2630632904758059</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.466071064214219</v>
+        <v>2.459886903168552</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.083922565624505</v>
+        <v>1.504999965907359</v>
       </c>
       <c r="C10">
-        <v>0.6654614818501727</v>
+        <v>0.391157583925434</v>
       </c>
       <c r="D10">
-        <v>0.3094841895809424</v>
+        <v>0.1085121102876485</v>
       </c>
       <c r="E10">
-        <v>0.03869610765741927</v>
+        <v>0.124969046707626</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4685561199483317</v>
+        <v>0.5615124391339634</v>
       </c>
       <c r="H10">
-        <v>0.310813287775261</v>
+        <v>0.674198116314102</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2081860731005065</v>
+        <v>0.200498255903824</v>
       </c>
       <c r="M10">
-        <v>0.6665041525756763</v>
+        <v>0.293820367744722</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.595119090683482</v>
+        <v>2.445781538409278</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.381195591193432</v>
+        <v>1.594646867712811</v>
       </c>
       <c r="C11">
-        <v>0.6982996535536756</v>
+        <v>0.4019704213071975</v>
       </c>
       <c r="D11">
-        <v>0.3330054323904648</v>
+        <v>0.114819117091443</v>
       </c>
       <c r="E11">
-        <v>0.03694972515999684</v>
+        <v>0.1239193084341682</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4931820713798771</v>
+        <v>0.5622370939629064</v>
       </c>
       <c r="H11">
-        <v>0.3169651380578671</v>
+        <v>0.6712880337371558</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2210067033777818</v>
+        <v>0.203179555385077</v>
       </c>
       <c r="M11">
-        <v>0.7151051553251619</v>
+        <v>0.3078492460428137</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.660524053194564</v>
+        <v>2.441440406372095</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.494076696081606</v>
+        <v>1.62858627240206</v>
       </c>
       <c r="C12">
-        <v>0.7107666316153995</v>
+        <v>0.4060623997443713</v>
       </c>
       <c r="D12">
-        <v>0.341971870698984</v>
+        <v>0.117212922501551</v>
       </c>
       <c r="E12">
-        <v>0.03630427723242535</v>
+        <v>0.12353026028568</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.50283201997226</v>
+        <v>0.5625922241181911</v>
       </c>
       <c r="H12">
-        <v>0.3194697574480472</v>
+        <v>0.6702481107028291</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2259077093432182</v>
+        <v>0.2042085631712069</v>
       </c>
       <c r="M12">
-        <v>0.7335749598032564</v>
+        <v>0.3131667927114492</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.686344547469133</v>
+        <v>2.440095869657284</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.469751038799131</v>
+        <v>1.621277193745243</v>
       </c>
       <c r="C13">
-        <v>0.7080801450819081</v>
+        <v>0.4051812394651222</v>
       </c>
       <c r="D13">
-        <v>0.3400380186691763</v>
+        <v>0.1166971299991246</v>
       </c>
       <c r="E13">
-        <v>0.03644257115284499</v>
+        <v>0.1236136724141718</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5007388030436744</v>
+        <v>0.5625121448737076</v>
       </c>
       <c r="H13">
-        <v>0.3189223365384493</v>
+        <v>0.6704693153719461</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.224850064706601</v>
+        <v>0.2039863412548755</v>
       </c>
       <c r="M13">
-        <v>0.7295940728883181</v>
+        <v>0.3120213404126559</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.680735306020267</v>
+        <v>2.440372111392236</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.390475849709844</v>
+        <v>1.597439251509968</v>
       </c>
       <c r="C14">
-        <v>0.6993246511132725</v>
+        <v>0.402307124725553</v>
       </c>
       <c r="D14">
-        <v>0.3337418703659836</v>
+        <v>0.1150159470977457</v>
       </c>
       <c r="E14">
-        <v>0.03689630248189901</v>
+        <v>0.1238871316052961</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4939692968385856</v>
+        <v>0.5622646909858844</v>
       </c>
       <c r="H14">
-        <v>0.3171676071887646</v>
+        <v>0.6712012344186746</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2214089612504182</v>
+        <v>0.2032639390240263</v>
       </c>
       <c r="M14">
-        <v>0.7166233026430433</v>
+        <v>0.3082866227388976</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.662626678094739</v>
+        <v>2.441323785820316</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.341959563266528</v>
+        <v>1.582836740972027</v>
       </c>
       <c r="C15">
-        <v>0.6939659610609397</v>
+        <v>0.4005462984040946</v>
       </c>
       <c r="D15">
-        <v>0.3298932714600369</v>
+        <v>0.1139868875436036</v>
       </c>
       <c r="E15">
-        <v>0.03717630943033712</v>
+        <v>0.1240557354004583</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4898659616509775</v>
+        <v>0.5621236408007491</v>
       </c>
       <c r="H15">
-        <v>0.3161159900102319</v>
+        <v>0.6716576403989194</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.21930732891704</v>
+        <v>0.2028232240407135</v>
       </c>
       <c r="M15">
-        <v>0.7086871851304579</v>
+        <v>0.3059996589656748</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.651674536406716</v>
+        <v>2.441945725647656</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.06453550128407</v>
+        <v>1.499140311478129</v>
       </c>
       <c r="C16">
-        <v>0.6633196159361603</v>
+        <v>0.390450589938041</v>
       </c>
       <c r="D16">
-        <v>0.3079549219022368</v>
+        <v>0.1081006992132245</v>
       </c>
       <c r="E16">
-        <v>0.03881242807938812</v>
+        <v>0.1250388345652507</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4669905425386816</v>
+        <v>0.5614763575025137</v>
       </c>
       <c r="H16">
-        <v>0.3104350041734989</v>
+        <v>0.6743969778592032</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2073544175881494</v>
+        <v>0.200324940495932</v>
       </c>
       <c r="M16">
-        <v>0.6633366019810722</v>
+        <v>0.2929042770453094</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.590987049305426</v>
+        <v>2.446107082883486</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.894839302818013</v>
+        <v>1.44778293184828</v>
       </c>
       <c r="C17">
-        <v>0.6445705120203797</v>
+        <v>0.3842528563191081</v>
       </c>
       <c r="D17">
-        <v>0.2945941978084363</v>
+        <v>0.1044994711800342</v>
       </c>
       <c r="E17">
-        <v>0.03984380557255673</v>
+        <v>0.1256570199817362</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4535034890095773</v>
+        <v>0.5612226637293816</v>
       </c>
       <c r="H17">
-        <v>0.307247266412773</v>
+        <v>0.6761879368443005</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2000989628514986</v>
+        <v>0.1988167019262903</v>
       </c>
       <c r="M17">
-        <v>0.6356217607998786</v>
+        <v>0.2848800647117145</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.555534935889114</v>
+        <v>2.449192164231249</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.797399446549775</v>
+        <v>1.418239535432974</v>
       </c>
       <c r="C18">
-        <v>0.6338038862024575</v>
+        <v>0.3806865789962615</v>
       </c>
       <c r="D18">
-        <v>0.2869430179374177</v>
+        <v>0.1024317257818268</v>
       </c>
       <c r="E18">
-        <v>0.04044702286282853</v>
+        <v>0.1260181305564653</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4459375891328534</v>
+        <v>0.5611293287755501</v>
       </c>
       <c r="H18">
-        <v>0.3055188658403978</v>
+        <v>0.677258621354369</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1959528039719913</v>
+        <v>0.1979581770023486</v>
       </c>
       <c r="M18">
-        <v>0.6197168832838074</v>
+        <v>0.2802682786410742</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.53576873306622</v>
+        <v>2.451161920535469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.764434761858638</v>
+        <v>1.408236015288082</v>
       </c>
       <c r="C19">
-        <v>0.6301613323808226</v>
+        <v>0.3794788490095584</v>
       </c>
       <c r="D19">
-        <v>0.2843580048251084</v>
+        <v>0.1017322385381618</v>
       </c>
       <c r="E19">
-        <v>0.04065296270308916</v>
+        <v>0.1261413492910597</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.443407941414506</v>
+        <v>0.5611067475425102</v>
       </c>
       <c r="H19">
-        <v>0.3049513252139633</v>
+        <v>0.677628102883304</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1945534908304154</v>
+        <v>0.1976690379693196</v>
       </c>
       <c r="M19">
-        <v>0.6143376578630964</v>
+        <v>0.2787074209081339</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.529180948974386</v>
+        <v>2.451862361316444</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.91288631475129</v>
+        <v>1.453250437777399</v>
       </c>
       <c r="C20">
-        <v>0.6465645552479771</v>
+        <v>0.3849127734598596</v>
       </c>
       <c r="D20">
-        <v>0.2960129446062751</v>
+        <v>0.1048824569373465</v>
       </c>
       <c r="E20">
-        <v>0.03973297527111397</v>
+        <v>0.1255906390888027</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4549191852683663</v>
+        <v>0.5612442251538425</v>
       </c>
       <c r="H20">
-        <v>0.3075756366393421</v>
+        <v>0.6759930866057857</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2008684942359054</v>
+        <v>0.1989763280674737</v>
       </c>
       <c r="M20">
-        <v>0.6385682624678566</v>
+        <v>0.2857338924526616</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.559243570795871</v>
+        <v>2.448843532747929</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.413752028966655</v>
+        <v>1.604441261582963</v>
       </c>
       <c r="C21">
-        <v>0.7018954459299209</v>
+        <v>0.40315139493066</v>
       </c>
       <c r="D21">
-        <v>0.3355895259042967</v>
+        <v>0.1155096025715494</v>
       </c>
       <c r="E21">
-        <v>0.03676259538953697</v>
+        <v>0.1238065803407743</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4959486102668791</v>
+        <v>0.562335180690738</v>
       </c>
       <c r="H21">
-        <v>0.3176781527870531</v>
+        <v>0.6709845671379782</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2224184081508014</v>
+        <v>0.2034757557800617</v>
       </c>
       <c r="M21">
-        <v>0.7204312686209278</v>
+        <v>0.3093834630393673</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.667916292962218</v>
+        <v>2.441036124346255</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742933047094027</v>
+        <v>1.703206203907257</v>
       </c>
       <c r="C22">
-        <v>0.7382457465055268</v>
+        <v>0.4150560552685647</v>
       </c>
       <c r="D22">
-        <v>0.3618055335532091</v>
+        <v>0.1224869912509234</v>
       </c>
       <c r="E22">
-        <v>0.03491405712533424</v>
+        <v>0.1226899313029703</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5246711718519776</v>
+        <v>0.5635188385152219</v>
       </c>
       <c r="H22">
-        <v>0.3253079220570214</v>
+        <v>0.6680729884364212</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2367736122770623</v>
+        <v>0.2064959783396034</v>
       </c>
       <c r="M22">
-        <v>0.7743213002242797</v>
+        <v>0.3248695222680027</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.745124931451699</v>
+        <v>2.437678823237206</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.567056209197631</v>
+        <v>1.650498348372366</v>
       </c>
       <c r="C23">
-        <v>0.7188259501830032</v>
+        <v>0.4087038098715823</v>
       </c>
       <c r="D23">
-        <v>0.3477788776950632</v>
+        <v>0.118760105470372</v>
       </c>
       <c r="E23">
-        <v>0.0358919783826348</v>
+        <v>0.1232813963063054</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5091566098397919</v>
+        <v>0.5628439167860648</v>
       </c>
       <c r="H23">
-        <v>0.3211371513122288</v>
+        <v>0.6695938265046806</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.229085604604407</v>
+        <v>0.2048767622945746</v>
       </c>
       <c r="M23">
-        <v>0.745520256864765</v>
+        <v>0.3166016867385082</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.703319873786256</v>
+        <v>2.439310685644955</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.904726888510368</v>
+        <v>1.450778632281015</v>
       </c>
       <c r="C24">
-        <v>0.6456630097831066</v>
+        <v>0.38461443461145</v>
       </c>
       <c r="D24">
-        <v>0.2953714360487396</v>
+        <v>0.10470930082802</v>
       </c>
       <c r="E24">
-        <v>0.03978304971913871</v>
+        <v>0.1256206321113447</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4542785656340129</v>
+        <v>0.561234313672756</v>
       </c>
       <c r="H24">
-        <v>0.3074268566593332</v>
+        <v>0.6760810505701045</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2005205112522503</v>
+        <v>0.1989041343558569</v>
       </c>
       <c r="M24">
-        <v>0.6372360602294833</v>
+        <v>0.2853478724256249</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.557564985906708</v>
+        <v>2.449000538258332</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.196421265363085</v>
+        <v>1.235202191689552</v>
       </c>
       <c r="C25">
-        <v>0.5673923287457399</v>
+        <v>0.3585736931200074</v>
       </c>
       <c r="D25">
-        <v>0.2400986609460034</v>
+        <v>0.08969025500984174</v>
       </c>
       <c r="E25">
-        <v>0.04436047097999374</v>
+        <v>0.128355976770324</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4023051043015897</v>
+        <v>0.5615069539188653</v>
       </c>
       <c r="H25">
-        <v>0.2966113257683247</v>
+        <v>0.6846294369101713</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1707248956451508</v>
+        <v>0.1928049473751443</v>
       </c>
       <c r="M25">
-        <v>0.5217757475692579</v>
+        <v>0.2517713952845497</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.423930369214531</v>
+        <v>2.466915473054428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.076372476977724</v>
+        <v>2.678286325382658</v>
       </c>
       <c r="C2">
-        <v>0.339357453126155</v>
+        <v>0.510145377037162</v>
       </c>
       <c r="D2">
-        <v>0.07874679504270432</v>
+        <v>0.2002235974763238</v>
       </c>
       <c r="E2">
-        <v>0.1305530787407504</v>
+        <v>0.04804001190082596</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5634210167354468</v>
+        <v>0.3692629780071002</v>
       </c>
       <c r="H2">
-        <v>0.6922552834534343</v>
+        <v>0.2916225521647959</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1886098154021667</v>
+        <v>0.1495069061910073</v>
       </c>
       <c r="M2">
-        <v>0.2271693040413467</v>
+        <v>0.4375732606195726</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.486489309140069</v>
+        <v>1.342804822413456</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9686840919832775</v>
+        <v>2.328415748042175</v>
       </c>
       <c r="C3">
-        <v>0.3263113533540434</v>
+        <v>0.4715113166874687</v>
       </c>
       <c r="D3">
-        <v>0.07140078600620825</v>
+        <v>0.1735951979961072</v>
       </c>
       <c r="E3">
-        <v>0.1321566076604418</v>
+        <v>0.05071830224206442</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5657797926579065</v>
+        <v>0.3496833624953055</v>
       </c>
       <c r="H3">
-        <v>0.6982530816225818</v>
+        <v>0.2898967748613472</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1859515242259775</v>
+        <v>0.1355071041773073</v>
       </c>
       <c r="M3">
-        <v>0.2105733504529965</v>
+        <v>0.3808601777121652</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.503718966320847</v>
+        <v>1.297231151250571</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9025462894373959</v>
+        <v>2.113973488613397</v>
       </c>
       <c r="C4">
-        <v>0.3182910085241986</v>
+        <v>0.4478478216761914</v>
       </c>
       <c r="D4">
-        <v>0.06692476485643795</v>
+        <v>0.1574046019450606</v>
       </c>
       <c r="E4">
-        <v>0.133197777312301</v>
+        <v>0.05245127699469476</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5677494206846774</v>
+        <v>0.3389129018932806</v>
       </c>
       <c r="H4">
-        <v>0.7023446836661691</v>
+        <v>0.2895924183659488</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1844106572097246</v>
+        <v>0.1270774743305765</v>
       </c>
       <c r="M4">
-        <v>0.2004224225427507</v>
+        <v>0.3461657384454853</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.516247831873471</v>
+        <v>1.273471355419048</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8755920007286022</v>
+        <v>2.026648998207804</v>
       </c>
       <c r="C5">
-        <v>0.3150204191106241</v>
+        <v>0.438216449752133</v>
       </c>
       <c r="D5">
-        <v>0.06510940814814603</v>
+        <v>0.1508419795419371</v>
       </c>
       <c r="E5">
-        <v>0.1336363064753596</v>
+        <v>0.05317935743193081</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5686828375597059</v>
+        <v>0.33481950612709</v>
       </c>
       <c r="H5">
-        <v>0.7041148308225615</v>
+        <v>0.2896497475451412</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1838057576821512</v>
+        <v>0.1236812648444143</v>
       </c>
       <c r="M5">
-        <v>0.1962958991912558</v>
+        <v>0.3320534309216683</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.521842970791425</v>
+        <v>1.264792532401415</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.871116152212835</v>
+        <v>2.012151682707156</v>
       </c>
       <c r="C6">
-        <v>0.3144772135390497</v>
+        <v>0.4366177941393232</v>
       </c>
       <c r="D6">
-        <v>0.06480849230312913</v>
+        <v>0.1497542474924813</v>
       </c>
       <c r="E6">
-        <v>0.133709984582285</v>
+        <v>0.053301565456919</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5688457201001071</v>
+        <v>0.3341571191586397</v>
       </c>
       <c r="H6">
-        <v>0.7044149691899122</v>
+        <v>0.2896699784419994</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1837067061679605</v>
+        <v>0.1231195969126233</v>
       </c>
       <c r="M6">
-        <v>0.1956113080187833</v>
+        <v>0.3297114888103962</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.52280158295828</v>
+        <v>1.263410379553633</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9021827828547657</v>
+        <v>2.112795589114683</v>
       </c>
       <c r="C7">
-        <v>0.3182469088848734</v>
+        <v>0.4477178859232538</v>
       </c>
       <c r="D7">
-        <v>0.06690024727247135</v>
+        <v>0.1573159599762448</v>
       </c>
       <c r="E7">
-        <v>0.1332036337796231</v>
+        <v>0.05246100803568188</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5677614799779533</v>
+        <v>0.3388565242970785</v>
       </c>
       <c r="H7">
-        <v>0.7023681403709645</v>
+        <v>0.2895924682159716</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1844024060651535</v>
+        <v>0.1270315179231858</v>
       </c>
       <c r="M7">
-        <v>0.2003667297423348</v>
+        <v>0.345975317657583</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.51632130882976</v>
+        <v>1.273350321607083</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.039245911088415</v>
+        <v>2.55755150525664</v>
       </c>
       <c r="C8">
-        <v>0.3348613921841661</v>
+        <v>0.4968105027662659</v>
       </c>
       <c r="D8">
-        <v>0.07620673315457793</v>
+        <v>0.1910060205198505</v>
       </c>
       <c r="E8">
-        <v>0.1310942365537587</v>
+        <v>0.04894489051783746</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5641259300418824</v>
+        <v>0.362240402341925</v>
       </c>
       <c r="H8">
-        <v>0.6942384250663736</v>
+        <v>0.2908654519402489</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1876743084490116</v>
+        <v>0.1446434678555164</v>
       </c>
       <c r="M8">
-        <v>0.2214390524380079</v>
+        <v>0.4179882738676852</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.492024954030057</v>
+        <v>1.326178556534018</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.307837155645529</v>
+        <v>3.434370362147718</v>
       </c>
       <c r="C9">
-        <v>0.3673526070653566</v>
+        <v>0.5936874939156951</v>
       </c>
       <c r="D9">
-        <v>0.09473140635120103</v>
+        <v>0.2585732116232151</v>
       </c>
       <c r="E9">
-        <v>0.1274061754611854</v>
+        <v>0.04276938019617993</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5611480127608672</v>
+        <v>0.4189380444601198</v>
       </c>
       <c r="H9">
-        <v>0.681542893055493</v>
+        <v>0.2997643373246461</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1948135789973264</v>
+        <v>0.1806399222190507</v>
       </c>
       <c r="M9">
-        <v>0.2630632904758059</v>
+        <v>0.5605211348203625</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.459886903168552</v>
+        <v>1.466071064214162</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.504999965907359</v>
+        <v>4.083922565624277</v>
       </c>
       <c r="C10">
-        <v>0.391157583925434</v>
+        <v>0.6654614818499738</v>
       </c>
       <c r="D10">
-        <v>0.1085121102876485</v>
+        <v>0.3094841895808287</v>
       </c>
       <c r="E10">
-        <v>0.124969046707626</v>
+        <v>0.0386961076574166</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5615124391339634</v>
+        <v>0.4685561199483175</v>
       </c>
       <c r="H10">
-        <v>0.674198116314102</v>
+        <v>0.3108132877752467</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.200498255903824</v>
+        <v>0.2081860731005634</v>
       </c>
       <c r="M10">
-        <v>0.293820367744722</v>
+        <v>0.6665041525756692</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.445781538409278</v>
+        <v>1.595119090683482</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.594646867712811</v>
+        <v>4.381195591193318</v>
       </c>
       <c r="C11">
-        <v>0.4019704213071975</v>
+        <v>0.698299653553903</v>
       </c>
       <c r="D11">
-        <v>0.114819117091443</v>
+        <v>0.3330054323905074</v>
       </c>
       <c r="E11">
-        <v>0.1239193084341682</v>
+        <v>0.03694972515999395</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5622370939629064</v>
+        <v>0.4931820713798913</v>
       </c>
       <c r="H11">
-        <v>0.6712880337371558</v>
+        <v>0.3169651380578529</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.203179555385077</v>
+        <v>0.2210067033777392</v>
       </c>
       <c r="M11">
-        <v>0.3078492460428137</v>
+        <v>0.7151051553251619</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.441440406372095</v>
+        <v>1.660524053194592</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.62858627240206</v>
+        <v>4.494076696081663</v>
       </c>
       <c r="C12">
-        <v>0.4060623997443713</v>
+        <v>0.7107666316156269</v>
       </c>
       <c r="D12">
-        <v>0.117212922501551</v>
+        <v>0.3419718706988704</v>
       </c>
       <c r="E12">
-        <v>0.12353026028568</v>
+        <v>0.03630427723243557</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5625922241181911</v>
+        <v>0.5028320199722884</v>
       </c>
       <c r="H12">
-        <v>0.6702481107028291</v>
+        <v>0.319469757448033</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2042085631712069</v>
+        <v>0.225907709343133</v>
       </c>
       <c r="M12">
-        <v>0.3131667927114492</v>
+        <v>0.7335749598032493</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.440095869657284</v>
+        <v>1.686344547469133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.621277193745243</v>
+        <v>4.469751038799188</v>
       </c>
       <c r="C13">
-        <v>0.4051812394651222</v>
+        <v>0.7080801450822207</v>
       </c>
       <c r="D13">
-        <v>0.1166971299991246</v>
+        <v>0.340038018669091</v>
       </c>
       <c r="E13">
-        <v>0.1236136724141718</v>
+        <v>0.03644257115283545</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5625121448737076</v>
+        <v>0.5007388030436744</v>
       </c>
       <c r="H13">
-        <v>0.6704693153719461</v>
+        <v>0.3189223365385629</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2039863412548755</v>
+        <v>0.2248500647065583</v>
       </c>
       <c r="M13">
-        <v>0.3120213404126559</v>
+        <v>0.7295940728883252</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.440372111392236</v>
+        <v>1.680735306020296</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.597439251509968</v>
+        <v>4.390475849710015</v>
       </c>
       <c r="C14">
-        <v>0.402307124725553</v>
+        <v>0.6993246511131588</v>
       </c>
       <c r="D14">
-        <v>0.1150159470977457</v>
+        <v>0.3337418703661683</v>
       </c>
       <c r="E14">
-        <v>0.1238871316052961</v>
+        <v>0.03689630248189812</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5622646909858844</v>
+        <v>0.4939692968385856</v>
       </c>
       <c r="H14">
-        <v>0.6712012344186746</v>
+        <v>0.3171676071887646</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2032639390240263</v>
+        <v>0.2214089612502903</v>
       </c>
       <c r="M14">
-        <v>0.3082866227388976</v>
+        <v>0.7166233026430504</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.441323785820316</v>
+        <v>1.662626678094767</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.582836740972027</v>
+        <v>4.341959563266528</v>
       </c>
       <c r="C15">
-        <v>0.4005462984040946</v>
+        <v>0.6939659610607123</v>
       </c>
       <c r="D15">
-        <v>0.1139868875436036</v>
+        <v>0.3298932714600653</v>
       </c>
       <c r="E15">
-        <v>0.1240557354004583</v>
+        <v>0.03717630943035055</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5621236408007491</v>
+        <v>0.4898659616509775</v>
       </c>
       <c r="H15">
-        <v>0.6716576403989194</v>
+        <v>0.3161159900102319</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2028232240407135</v>
+        <v>0.2193073289171394</v>
       </c>
       <c r="M15">
-        <v>0.3059996589656748</v>
+        <v>0.708687185130465</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.441945725647656</v>
+        <v>1.651674536406688</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.499140311478129</v>
+        <v>4.064535501284183</v>
       </c>
       <c r="C16">
-        <v>0.390450589938041</v>
+        <v>0.6633196159361034</v>
       </c>
       <c r="D16">
-        <v>0.1081006992132245</v>
+        <v>0.3079549219020947</v>
       </c>
       <c r="E16">
-        <v>0.1250388345652507</v>
+        <v>0.03881242807941343</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5614763575025137</v>
+        <v>0.4669905425385821</v>
       </c>
       <c r="H16">
-        <v>0.6743969778592032</v>
+        <v>0.3104350041733852</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.200324940495932</v>
+        <v>0.2073544175881494</v>
       </c>
       <c r="M16">
-        <v>0.2929042770453094</v>
+        <v>0.6633366019810794</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.446107082883486</v>
+        <v>1.590987049305426</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.44778293184828</v>
+        <v>3.894839302818013</v>
       </c>
       <c r="C17">
-        <v>0.3842528563191081</v>
+        <v>0.6445705120204366</v>
       </c>
       <c r="D17">
-        <v>0.1044994711800342</v>
+        <v>0.2945941978084221</v>
       </c>
       <c r="E17">
-        <v>0.1256570199817362</v>
+        <v>0.03984380557256784</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5612226637293816</v>
+        <v>0.4535034890095915</v>
       </c>
       <c r="H17">
-        <v>0.6761879368443005</v>
+        <v>0.307247266412773</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1988167019262903</v>
+        <v>0.2000989628513992</v>
       </c>
       <c r="M17">
-        <v>0.2848800647117145</v>
+        <v>0.6356217607999</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.449192164231249</v>
+        <v>1.555534935889114</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.418239535432974</v>
+        <v>3.797399446549832</v>
       </c>
       <c r="C18">
-        <v>0.3806865789962615</v>
+        <v>0.6338038862024007</v>
       </c>
       <c r="D18">
-        <v>0.1024317257818268</v>
+        <v>0.2869430179376451</v>
       </c>
       <c r="E18">
-        <v>0.1260181305564653</v>
+        <v>0.04044702286281443</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5611293287755501</v>
+        <v>0.4459375891328818</v>
       </c>
       <c r="H18">
-        <v>0.677258621354369</v>
+        <v>0.3055188658403836</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1979581770023486</v>
+        <v>0.1959528039719345</v>
       </c>
       <c r="M18">
-        <v>0.2802682786410742</v>
+        <v>0.6197168832837932</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.451161920535469</v>
+        <v>1.535768733066192</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.408236015288082</v>
+        <v>3.764434761858638</v>
       </c>
       <c r="C19">
-        <v>0.3794788490095584</v>
+        <v>0.6301613323806805</v>
       </c>
       <c r="D19">
-        <v>0.1017322385381618</v>
+        <v>0.2843580048253074</v>
       </c>
       <c r="E19">
-        <v>0.1261413492910597</v>
+        <v>0.04065296270310848</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5611067475425102</v>
+        <v>0.4434079414145486</v>
       </c>
       <c r="H19">
-        <v>0.677628102883304</v>
+        <v>0.3049513252139633</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1976690379693196</v>
+        <v>0.1945534908303443</v>
       </c>
       <c r="M19">
-        <v>0.2787074209081339</v>
+        <v>0.6143376578631035</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.451862361316444</v>
+        <v>1.529180948974471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.453250437777399</v>
+        <v>3.912886314751461</v>
       </c>
       <c r="C20">
-        <v>0.3849127734598596</v>
+        <v>0.6465645552482897</v>
       </c>
       <c r="D20">
-        <v>0.1048824569373465</v>
+        <v>0.2960129446062183</v>
       </c>
       <c r="E20">
-        <v>0.1255906390888027</v>
+        <v>0.0397329752711153</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5612442251538425</v>
+        <v>0.4549191852683663</v>
       </c>
       <c r="H20">
-        <v>0.6759930866057857</v>
+        <v>0.3075756366393421</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1989763280674737</v>
+        <v>0.2008684942359338</v>
       </c>
       <c r="M20">
-        <v>0.2857338924526616</v>
+        <v>0.6385682624678353</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.448843532747929</v>
+        <v>1.559243570795843</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.604441261582963</v>
+        <v>4.413752028966258</v>
       </c>
       <c r="C21">
-        <v>0.40315139493066</v>
+        <v>0.7018954459302904</v>
       </c>
       <c r="D21">
-        <v>0.1155096025715494</v>
+        <v>0.3355895259044814</v>
       </c>
       <c r="E21">
-        <v>0.1238065803407743</v>
+        <v>0.03676259538953852</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.562335180690738</v>
+        <v>0.4959486102668791</v>
       </c>
       <c r="H21">
-        <v>0.6709845671379782</v>
+        <v>0.3176781527869394</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2034757557800617</v>
+        <v>0.2224184081508582</v>
       </c>
       <c r="M21">
-        <v>0.3093834630393673</v>
+        <v>0.7204312686209207</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.441036124346255</v>
+        <v>1.667916292962218</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.703206203907257</v>
+        <v>4.742933047094198</v>
       </c>
       <c r="C22">
-        <v>0.4150560552685647</v>
+        <v>0.738245746505612</v>
       </c>
       <c r="D22">
-        <v>0.1224869912509234</v>
+        <v>0.361805533553138</v>
       </c>
       <c r="E22">
-        <v>0.1226899313029703</v>
+        <v>0.03491405712533524</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5635188385152219</v>
+        <v>0.5246711718519919</v>
       </c>
       <c r="H22">
-        <v>0.6680729884364212</v>
+        <v>0.3253079220570072</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2064959783396034</v>
+        <v>0.2367736122770907</v>
       </c>
       <c r="M22">
-        <v>0.3248695222680027</v>
+        <v>0.774321300224301</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.437678823237206</v>
+        <v>1.74512493145167</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.650498348372366</v>
+        <v>4.567056209197574</v>
       </c>
       <c r="C23">
-        <v>0.4087038098715823</v>
+        <v>0.7188259501833159</v>
       </c>
       <c r="D23">
-        <v>0.118760105470372</v>
+        <v>0.3477788776950632</v>
       </c>
       <c r="E23">
-        <v>0.1232813963063054</v>
+        <v>0.03589197838263702</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5628439167860648</v>
+        <v>0.5091566098397919</v>
       </c>
       <c r="H23">
-        <v>0.6695938265046806</v>
+        <v>0.3211371513121151</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2048767622945746</v>
+        <v>0.2290856046043643</v>
       </c>
       <c r="M23">
-        <v>0.3166016867385082</v>
+        <v>0.745520256864765</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.439310685644955</v>
+        <v>1.703319873786285</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.450778632281015</v>
+        <v>3.904726888510311</v>
       </c>
       <c r="C24">
-        <v>0.38461443461145</v>
+        <v>0.6456630097830214</v>
       </c>
       <c r="D24">
-        <v>0.10470930082802</v>
+        <v>0.2953714360486686</v>
       </c>
       <c r="E24">
-        <v>0.1256206321113447</v>
+        <v>0.03978304971911639</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.561234313672756</v>
+        <v>0.4542785656339703</v>
       </c>
       <c r="H24">
-        <v>0.6760810505701045</v>
+        <v>0.307426856659319</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1989041343558569</v>
+        <v>0.2005205112521509</v>
       </c>
       <c r="M24">
-        <v>0.2853478724256249</v>
+        <v>0.6372360602294762</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.449000538258332</v>
+        <v>1.557564985906708</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.235202191689552</v>
+        <v>3.196421265363085</v>
       </c>
       <c r="C25">
-        <v>0.3585736931200074</v>
+        <v>0.5673923287457399</v>
       </c>
       <c r="D25">
-        <v>0.08969025500984174</v>
+        <v>0.2400986609461171</v>
       </c>
       <c r="E25">
-        <v>0.128355976770324</v>
+        <v>0.04436047097998097</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5615069539188653</v>
+        <v>0.4023051043016039</v>
       </c>
       <c r="H25">
-        <v>0.6846294369101713</v>
+        <v>0.2966113257683247</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1928049473751443</v>
+        <v>0.1707248956452929</v>
       </c>
       <c r="M25">
-        <v>0.2517713952845497</v>
+        <v>0.5217757475692508</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.466915473054428</v>
+        <v>1.423930369214503</v>
       </c>
     </row>
   </sheetData>
